--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Epha7</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +525,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H2">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I2">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J2">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.1162150954713</v>
+        <v>0.3423605</v>
       </c>
       <c r="N2">
-        <v>1.1162150954713</v>
+        <v>0.684721</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2024379518768077</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1895111415682583</v>
       </c>
       <c r="Q2">
-        <v>0.4274732908217972</v>
+        <v>0.132323017971</v>
       </c>
       <c r="R2">
-        <v>0.4274732908217972</v>
+        <v>0.5292920718840001</v>
       </c>
       <c r="S2">
-        <v>0.2310940032498789</v>
+        <v>0.04096887231828293</v>
       </c>
       <c r="T2">
-        <v>0.2310940032498789</v>
+        <v>0.03230899009462472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.522573029932645</v>
+        <v>0.386502</v>
       </c>
       <c r="H3">
-        <v>0.522573029932645</v>
+        <v>0.773004</v>
       </c>
       <c r="I3">
-        <v>0.3153367410215326</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J3">
-        <v>0.3153367410215326</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.1162150954713</v>
+        <v>0.1032176666666667</v>
       </c>
       <c r="N3">
-        <v>1.1162150954713</v>
+        <v>0.309653</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.06103266304817009</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.08570307252156117</v>
       </c>
       <c r="Q3">
-        <v>0.5833039044969938</v>
+        <v>0.03989383460199999</v>
       </c>
       <c r="R3">
-        <v>0.5833039044969938</v>
+        <v>0.239363007612</v>
       </c>
       <c r="S3">
-        <v>0.3153367410215326</v>
+        <v>0.01235163345846777</v>
       </c>
       <c r="T3">
-        <v>0.3153367410215326</v>
+        <v>0.01461117113360161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.386502</v>
+      </c>
+      <c r="H4">
+        <v>0.773004</v>
+      </c>
+      <c r="I4">
+        <v>0.2023774294220003</v>
+      </c>
+      <c r="J4">
+        <v>0.1704859662986497</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.039967</v>
+      </c>
+      <c r="O4">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P4">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q4">
+        <v>0.005149108478</v>
+      </c>
+      <c r="R4">
+        <v>0.030894650868</v>
+      </c>
+      <c r="S4">
+        <v>0.001594228812362811</v>
+      </c>
+      <c r="T4">
+        <v>0.001885867977047391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.386502</v>
+      </c>
+      <c r="H5">
+        <v>0.773004</v>
+      </c>
+      <c r="I5">
+        <v>0.2023774294220003</v>
+      </c>
+      <c r="J5">
+        <v>0.1704859662986497</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.342529</v>
+      </c>
+      <c r="O5">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P5">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q5">
+        <v>0.044129381186</v>
+      </c>
+      <c r="R5">
+        <v>0.264776287116</v>
+      </c>
+      <c r="S5">
+        <v>0.01366301200665102</v>
+      </c>
+      <c r="T5">
+        <v>0.01616244582555773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.386502</v>
+      </c>
+      <c r="H6">
+        <v>0.773004</v>
+      </c>
+      <c r="I6">
+        <v>0.2023774294220003</v>
+      </c>
+      <c r="J6">
+        <v>0.1704859662986497</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.1181105</v>
+      </c>
+      <c r="N6">
+        <v>2.236221</v>
+      </c>
+      <c r="O6">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P6">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q6">
+        <v>0.432151944471</v>
+      </c>
+      <c r="R6">
+        <v>1.728607777884</v>
+      </c>
+      <c r="S6">
+        <v>0.1337996828262357</v>
+      </c>
+      <c r="T6">
+        <v>0.1055174912678183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H7">
+        <v>2.079365</v>
+      </c>
+      <c r="I7">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J7">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.3423605</v>
+      </c>
+      <c r="N7">
+        <v>0.684721</v>
+      </c>
+      <c r="O7">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P7">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q7">
+        <v>0.2372974803608334</v>
+      </c>
+      <c r="R7">
+        <v>1.423784882165</v>
+      </c>
+      <c r="S7">
+        <v>0.07347028750873769</v>
+      </c>
+      <c r="T7">
+        <v>0.08691052463908251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H8">
+        <v>2.079365</v>
+      </c>
+      <c r="I8">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J8">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.309653</v>
+      </c>
+      <c r="O8">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P8">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q8">
+        <v>0.07154240114944445</v>
+      </c>
+      <c r="R8">
+        <v>0.6438816103449999</v>
+      </c>
+      <c r="S8">
+        <v>0.02215042811884271</v>
+      </c>
+      <c r="T8">
+        <v>0.0393037524569362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.079365</v>
+      </c>
+      <c r="I9">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J9">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.039967</v>
+      </c>
+      <c r="O9">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P9">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q9">
+        <v>0.00923399788388889</v>
+      </c>
+      <c r="R9">
+        <v>0.08310598095500001</v>
+      </c>
+      <c r="S9">
+        <v>0.002858962001420257</v>
+      </c>
+      <c r="T9">
+        <v>0.00507294640919471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="H4">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="I4">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="J4">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1.1162150954713</v>
-      </c>
-      <c r="N4">
-        <v>1.1162150954713</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.8390037804323447</v>
-      </c>
-      <c r="R4">
-        <v>0.8390037804323447</v>
-      </c>
-      <c r="S4">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="T4">
-        <v>0.4535692557285884</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.079365</v>
+      </c>
+      <c r="I10">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J10">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.342529</v>
+      </c>
+      <c r="O10">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P10">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q10">
+        <v>0.07913809045388891</v>
+      </c>
+      <c r="R10">
+        <v>0.7122428140850001</v>
+      </c>
+      <c r="S10">
+        <v>0.02450214915766705</v>
+      </c>
+      <c r="T10">
+        <v>0.04347664975092088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6931216666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.079365</v>
+      </c>
+      <c r="I11">
+        <v>0.3629274393837356</v>
+      </c>
+      <c r="J11">
+        <v>0.4586037734767113</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.1181105</v>
+      </c>
+      <c r="N11">
+        <v>2.236221</v>
+      </c>
+      <c r="O11">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P11">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q11">
+        <v>0.7749866132775001</v>
+      </c>
+      <c r="R11">
+        <v>4.649919679665</v>
+      </c>
+      <c r="S11">
+        <v>0.2399456125970678</v>
+      </c>
+      <c r="T11">
+        <v>0.283839900220577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.064151</v>
+      </c>
+      <c r="I12">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J12">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.3423605</v>
+      </c>
+      <c r="N12">
+        <v>0.684721</v>
+      </c>
+      <c r="O12">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P12">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q12">
+        <v>0.007320922811833333</v>
+      </c>
+      <c r="R12">
+        <v>0.043925536871</v>
+      </c>
+      <c r="S12">
+        <v>0.00226664987338588</v>
+      </c>
+      <c r="T12">
+        <v>0.00268129792803177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.064151</v>
+      </c>
+      <c r="I13">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J13">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.309653</v>
+      </c>
+      <c r="O13">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P13">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q13">
+        <v>0.002207172178111111</v>
+      </c>
+      <c r="R13">
+        <v>0.019864549603</v>
+      </c>
+      <c r="S13">
+        <v>0.0006833682947687772</v>
+      </c>
+      <c r="T13">
+        <v>0.001212569714246856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.064151</v>
+      </c>
+      <c r="I14">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J14">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.039967</v>
+      </c>
+      <c r="O14">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P14">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q14">
+        <v>0.0002848803352222222</v>
+      </c>
+      <c r="R14">
+        <v>0.002563923017</v>
+      </c>
+      <c r="S14">
+        <v>8.820253844472271E-05</v>
+      </c>
+      <c r="T14">
+        <v>0.0001565067148366207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.064151</v>
+      </c>
+      <c r="I15">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J15">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.342529</v>
+      </c>
+      <c r="O15">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P15">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q15">
+        <v>0.002441508653222222</v>
+      </c>
+      <c r="R15">
+        <v>0.021973577879</v>
+      </c>
+      <c r="S15">
+        <v>0.0007559218177729734</v>
+      </c>
+      <c r="T15">
+        <v>0.001341308792910973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.064151</v>
+      </c>
+      <c r="I16">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J16">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.1181105</v>
+      </c>
+      <c r="N16">
+        <v>2.236221</v>
+      </c>
+      <c r="O16">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P16">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q16">
+        <v>0.0239093022285</v>
+      </c>
+      <c r="R16">
+        <v>0.143455813371</v>
+      </c>
+      <c r="S16">
+        <v>0.00740262098944365</v>
+      </c>
+      <c r="T16">
+        <v>0.008756814430872038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8088005</v>
+      </c>
+      <c r="H17">
+        <v>1.617601</v>
+      </c>
+      <c r="I17">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J17">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.3423605</v>
+      </c>
+      <c r="N17">
+        <v>0.684721</v>
+      </c>
+      <c r="O17">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P17">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q17">
+        <v>0.27690134358025</v>
+      </c>
+      <c r="R17">
+        <v>1.107605374321</v>
+      </c>
+      <c r="S17">
+        <v>0.08573214217640115</v>
+      </c>
+      <c r="T17">
+        <v>0.0676103289065193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8088005</v>
+      </c>
+      <c r="H18">
+        <v>1.617601</v>
+      </c>
+      <c r="I18">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J18">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.309653</v>
+      </c>
+      <c r="O18">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P18">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q18">
+        <v>0.08348250040883333</v>
+      </c>
+      <c r="R18">
+        <v>0.500895002453</v>
+      </c>
+      <c r="S18">
+        <v>0.02584723317609084</v>
+      </c>
+      <c r="T18">
+        <v>0.03057557921677649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8088005</v>
+      </c>
+      <c r="H19">
+        <v>1.617601</v>
+      </c>
+      <c r="I19">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J19">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.039967</v>
+      </c>
+      <c r="O19">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P19">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q19">
+        <v>0.01077510986116667</v>
+      </c>
+      <c r="R19">
+        <v>0.06465065916700001</v>
+      </c>
+      <c r="S19">
+        <v>0.003336109672274522</v>
+      </c>
+      <c r="T19">
+        <v>0.00394639862864854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8088005</v>
+      </c>
+      <c r="H20">
+        <v>1.617601</v>
+      </c>
+      <c r="I20">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J20">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.342529</v>
+      </c>
+      <c r="O20">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P20">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q20">
+        <v>0.09234587548816667</v>
+      </c>
+      <c r="R20">
+        <v>0.5540752529290001</v>
+      </c>
+      <c r="S20">
+        <v>0.02859144569105812</v>
+      </c>
+      <c r="T20">
+        <v>0.03382180238377551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8088005</v>
+      </c>
+      <c r="H21">
+        <v>1.617601</v>
+      </c>
+      <c r="I21">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J21">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.1181105</v>
+      </c>
+      <c r="N21">
+        <v>2.236221</v>
+      </c>
+      <c r="O21">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P21">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q21">
+        <v>0.90432833145525</v>
+      </c>
+      <c r="R21">
+        <v>3.617313325821</v>
+      </c>
+      <c r="S21">
+        <v>0.2799914369646235</v>
+      </c>
+      <c r="T21">
+        <v>0.2208076535080208</v>
       </c>
     </row>
   </sheetData>
